--- a/data/input/cvicny_dataset.xlsx
+++ b/data/input/cvicny_dataset.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katerina.safarova\Documents\GitHub\workshopy_R\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9922E5-B7FC-4C2B-9AAC-9345C60B2389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C97DBB-765C-49AF-B049-DB40995B465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{73569CDC-2E69-46D3-B831-04F33D092FAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{73569CDC-2E69-46D3-B831-04F33D092FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="zeny" sheetId="1" r:id="rId1"/>
     <sheet name="vsichni" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vsichni!$A$1:$G$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vsichni!$A$1:$G$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zeny!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="160">
   <si>
     <t>Jakub Svoboda</t>
   </si>
@@ -331,63 +331,21 @@
     <t>Plzeň</t>
   </si>
   <si>
-    <t>Liberec</t>
-  </si>
-  <si>
-    <t>Olomouc</t>
-  </si>
-  <si>
     <t>Ústí nad Labem</t>
   </si>
   <si>
-    <t>Hradec Králové</t>
-  </si>
-  <si>
     <t>České Budějovice</t>
   </si>
   <si>
     <t>Pardubice</t>
   </si>
   <si>
-    <t>Zlín</t>
-  </si>
-  <si>
-    <t>Havířov</t>
-  </si>
-  <si>
-    <t>Kladno</t>
-  </si>
-  <si>
-    <t>Most</t>
-  </si>
-  <si>
-    <t>Opava</t>
-  </si>
-  <si>
-    <t>Frýdek-Místek</t>
-  </si>
-  <si>
-    <t>Karviná</t>
-  </si>
-  <si>
     <t>Jihlava</t>
   </si>
   <si>
     <t>Teplice</t>
   </si>
   <si>
-    <t>Děčín</t>
-  </si>
-  <si>
-    <t>Jindřichův Hradec</t>
-  </si>
-  <si>
-    <t>Česká Lípa</t>
-  </si>
-  <si>
-    <t>Třebíč</t>
-  </si>
-  <si>
     <t>Dvůr Králové nad Labem</t>
   </si>
   <si>
@@ -485,6 +443,84 @@
   </si>
   <si>
     <t xml:space="preserve">obvyklá délka spánku </t>
+  </si>
+  <si>
+    <t>Černošice</t>
+  </si>
+  <si>
+    <t>Brno, Plzeň, Praha</t>
+  </si>
+  <si>
+    <t>Rožnov pod Radhoštěm</t>
+  </si>
+  <si>
+    <t>Karlovy Vary</t>
+  </si>
+  <si>
+    <t>Lovosice, Litoměřice, Žatec, Roudnice nad Labem, Chomutov, Kadaň</t>
+  </si>
+  <si>
+    <t>Černošice, Rakovník, Říčany, Praha</t>
+  </si>
+  <si>
+    <t>Brno, Olomouc, Plzeň, Ústí nad Labem, Praha</t>
+  </si>
+  <si>
+    <t>České Budějovice, Praha</t>
+  </si>
+  <si>
+    <t>Ivančice</t>
+  </si>
+  <si>
+    <t>Břeclav</t>
+  </si>
+  <si>
+    <t>Olomouc, Přerov, Uherské Hradiště, Praha</t>
+  </si>
+  <si>
+    <t>Rumburk</t>
+  </si>
+  <si>
+    <t>Rokycany</t>
+  </si>
+  <si>
+    <t>Vysoké Mýto</t>
+  </si>
+  <si>
+    <t>Moravská Třebová</t>
+  </si>
+  <si>
+    <t>Broumov, Dvůr Králové nad Labem, Hradec Králové, Náchod, Trutnov</t>
+  </si>
+  <si>
+    <t>Jablonec nad Nisou, Liberec</t>
+  </si>
+  <si>
+    <t>Ostrov</t>
+  </si>
+  <si>
+    <t>Vyškov</t>
+  </si>
+  <si>
+    <t>Kutná Hora</t>
+  </si>
+  <si>
+    <t>Říčany</t>
+  </si>
+  <si>
+    <t>Brno, Olomouc, Šumperk, Zábřeh</t>
+  </si>
+  <si>
+    <t>Benešov</t>
+  </si>
+  <si>
+    <t>Luhačovice</t>
+  </si>
+  <si>
+    <t>Nymburk</t>
+  </si>
+  <si>
+    <t>Mariánské Lázně</t>
   </si>
 </sst>
 </file>
@@ -562,18 +598,7 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -889,20 +914,20 @@
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="18" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
@@ -911,10 +936,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -928,13 +953,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -948,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -968,13 +993,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -988,13 +1013,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -1008,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>13</v>
       </c>
@@ -1028,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>14</v>
       </c>
@@ -1048,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>21</v>
       </c>
@@ -1068,13 +1093,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>22</v>
       </c>
@@ -1088,13 +1113,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>24</v>
       </c>
@@ -1108,13 +1133,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>25</v>
       </c>
@@ -1128,13 +1153,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>27</v>
       </c>
@@ -1148,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>30</v>
       </c>
@@ -1168,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>30</v>
       </c>
@@ -1188,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>36</v>
       </c>
@@ -1208,13 +1233,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>37</v>
       </c>
@@ -1228,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>37</v>
       </c>
@@ -1248,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>39</v>
       </c>
@@ -1268,13 +1293,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>40</v>
       </c>
@@ -1288,13 +1313,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41</v>
       </c>
@@ -1308,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42</v>
       </c>
@@ -1328,13 +1353,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44</v>
       </c>
@@ -1348,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>48</v>
       </c>
@@ -1368,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>50</v>
       </c>
@@ -1388,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>51</v>
       </c>
@@ -1408,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>52</v>
       </c>
@@ -1428,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>46</v>
       </c>
@@ -1442,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1451,7 +1476,7 @@
         <v>92</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1467,26 +1492,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FD57A8-ABCC-4A0C-B6B7-BDEEAB681CDF}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="18" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
@@ -1495,13 +1520,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1514,17 +1539,17 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>129</v>
+      <c r="E2" t="s">
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G2" s="6">
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1537,17 +1562,17 @@
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>93</v>
+      <c r="E3" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G3" s="6">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1560,17 +1585,17 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>131</v>
+      <c r="E4" t="s">
+        <v>134</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G4" s="6">
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1583,17 +1608,17 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>113</v>
+      <c r="E5" t="s">
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G5" s="6">
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1606,17 +1631,17 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>100</v>
+      <c r="E6" t="s">
+        <v>135</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G6" s="6">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1629,17 +1654,17 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>116</v>
+      <c r="E7" t="s">
+        <v>136</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G7" s="6">
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1652,17 +1677,17 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>111</v>
+      <c r="E8" t="s">
+        <v>137</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G8" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1675,17 +1700,17 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>115</v>
+      <c r="E9" t="s">
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G9" s="6">
         <v>6.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1698,15 +1723,15 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>107</v>
+      <c r="E10" t="s">
+        <v>139</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1719,17 +1744,17 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>103</v>
+      <c r="E11" t="s">
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G11" s="6">
         <v>8.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1742,17 +1767,17 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>134</v>
+      <c r="E12" t="s">
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G12" s="6">
         <v>8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1765,17 +1790,17 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>99</v>
+      <c r="E13" t="s">
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G13" s="6">
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1788,17 +1813,17 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>119</v>
+      <c r="E14" t="s">
+        <v>141</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G14" s="6">
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1811,17 +1836,17 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>121</v>
+      <c r="E15" t="s">
+        <v>142</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G15" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1834,17 +1859,17 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>109</v>
+      <c r="E16" t="s">
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G16" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1857,301 +1882,283 @@
       <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>112</v>
+      <c r="E17" t="s">
+        <v>142</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G17" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="E18"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="E19"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="6">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>104</v>
+      <c r="E20" t="s">
+        <v>92</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G20" s="6">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>130</v>
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G21" s="6">
         <v>6.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="F25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="6">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="6">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="6">
         <v>7.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>146</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G28" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>106</v>
+      <c r="E29" t="s">
+        <v>147</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G29" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G30" s="6">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2164,155 +2171,155 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>137</v>
+      <c r="E31" t="s">
+        <v>92</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G31" s="6">
         <v>6.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="6">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>101</v>
+      <c r="E33" t="s">
+        <v>149</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G33" s="6">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>95</v>
+      <c r="E34" t="s">
+        <v>150</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G34" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>92</v>
+      <c r="E35" t="s">
+        <v>95</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G35" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="2">
+    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="6">
         <v>5.7</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="2">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2325,175 +2332,175 @@
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>136</v>
+      <c r="E38" t="s">
+        <v>145</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G38" s="6">
         <v>4.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="2">
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="6">
         <v>4.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="2">
+    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="6">
         <v>8.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="2">
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="2">
+    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="6">
         <v>8.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="2">
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="2">
-        <v>45</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G45" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2506,191 +2513,206 @@
       <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>114</v>
+      <c r="E46" t="s">
+        <v>143</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G46" s="6">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="6">
+      <c r="C48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="6">
         <v>7.8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="2">
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>128</v>
+      <c r="E49" t="s">
+        <v>97</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G49" s="6">
         <v>8.1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="6">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G52" s="6">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" s="6">
+      <c r="F54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="6">
         <v>5.8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="G54" s="6"/>
+    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="3"/>
+      <c r="E55"/>
+      <c r="G55" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G53" xr:uid="{78FD57A8-ABCC-4A0C-B6B7-BDEEAB681CDF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G52">
-      <sortCondition ref="A1:A53"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>